--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT129-001 - Akuntansi - Transaksi - SJS - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT129-001 - Akuntansi - Transaksi - SJS - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EB183-F7AB-4D25-BC61-EDD32974BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CC805-F3BD-44DD-B10C-948D9EE1C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>CLM2023010097</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,6 +192,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,9 +799,6 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="60">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -841,6 +844,60 @@
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="60">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ref="F7" si="1">"Username : "&amp;G7&amp;",
+Password : "&amp;H7&amp;",
+Dokumen ID : "&amp;M7&amp;",
+Tanggal : "&amp;N7</f>
+        <v>Username : 32660,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 44796</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32660</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8">
+        <v>44796</v>
+      </c>
+      <c r="O7" s="8">
+        <v>44796</v>
       </c>
     </row>
   </sheetData>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT129-001 - Akuntansi - Transaksi - SJS - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT129-001 - Akuntansi - Transaksi - SJS - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CC805-F3BD-44DD-B10C-948D9EE1C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EA739-DBED-4302-BC7E-1588DC0E62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,9 +847,6 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="60">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
